--- a/generated_docs/WR_89866468_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89866468_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I162"/>
+  <dimension ref="A2:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>27159.67</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,28 +969,28 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +999,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,28 +1037,28 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,11 +1135,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,32 +1203,32 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,28 +1241,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,32 +1305,32 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,32 +1339,32 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,28 +1377,28 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,32 +1475,32 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,28 +1513,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,32 +1543,32 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 32</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,1102 +1577,1213 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="inlineStr">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H41" s="16" t="n">
-        <v>5297.74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="H46" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Tuesday (08/12/2025)</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G50" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H45" s="8" t="inlineStr">
+      <c r="H50" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B51" s="9" t="inlineStr">
         <is>
           <t>ANC-DSC-16-96-D1</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>ANC,Disc,16in,96in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>790.5599999999999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="B52" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
+      <c r="C52" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>76.56</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
+      <c r="G52" s="13" t="inlineStr"/>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>Point 27</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B53" s="9" t="inlineStr">
         <is>
           <t>PLA-CUT</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="B54" s="12" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr"/>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B55" s="9" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B51" s="12" t="inlineStr">
+      <c r="B56" s="12" t="inlineStr">
         <is>
           <t>CNC-SNB-40</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>121.74</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="inlineStr">
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
-      <c r="E52" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="10" t="n">
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G52" s="10" t="inlineStr"/>
-      <c r="H52" s="11" t="n">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B53" s="12" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>DEG-10-PNA</t>
         </is>
       </c>
-      <c r="C53" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="12" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
-      <c r="E53" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F53" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13" t="inlineStr"/>
-      <c r="H53" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="inlineStr">
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B54" s="9" t="inlineStr">
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C54" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D54" s="9" t="inlineStr">
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E54" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="10" t="n">
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G54" s="10" t="inlineStr"/>
-      <c r="H54" s="11" t="n">
-        <v>158.7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B55" s="12" t="inlineStr">
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C55" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D55" s="12" t="inlineStr">
+      <c r="C63" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E55" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="13" t="n">
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="14" t="n">
-        <v>470.85</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="B64" s="12" t="inlineStr">
+        <is>
+          <t>JPR-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
+        <is>
+          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E56" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
+      <c r="E65" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B57" s="12" t="inlineStr">
+      <c r="B66" s="12" t="inlineStr">
         <is>
           <t>PIN-XAA</t>
         </is>
       </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
         <is>
           <t>Pin,Crossarm,8in</t>
         </is>
       </c>
-      <c r="E57" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="13" t="n">
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>376.68</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B58" s="9" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E58" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B59" s="12" t="inlineStr">
+      <c r="B70" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="inlineStr">
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B60" s="9" t="inlineStr">
+      <c r="B71" s="9" t="inlineStr">
         <is>
           <t>SAA-CL-336</t>
         </is>
       </c>
-      <c r="C60" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
         <is>
           <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
-      <c r="E60" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="10" t="inlineStr"/>
-      <c r="H60" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="12" t="inlineStr">
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B61" s="12" t="inlineStr">
+      <c r="B72" s="12" t="inlineStr">
         <is>
           <t>SAA-SP-336</t>
         </is>
       </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="12" t="inlineStr">
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
         <is>
           <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
-      <c r="E61" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="13" t="n">
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G61" s="13" t="inlineStr"/>
-      <c r="H61" s="14" t="n">
-        <v>165.54</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="inlineStr">
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B62" s="9" t="inlineStr">
+      <c r="B74" s="12" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
-      <c r="C62" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D62" s="9" t="inlineStr">
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E62" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10" t="inlineStr"/>
-      <c r="H62" s="11" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12" t="inlineStr">
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B63" s="12" t="inlineStr">
+      <c r="B75" s="9" t="inlineStr">
         <is>
           <t>ARM-8S-60S</t>
         </is>
       </c>
-      <c r="C63" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D63" s="12" t="inlineStr">
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
         <is>
           <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
-      <c r="E63" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="13" t="n">
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G63" s="13" t="inlineStr"/>
-      <c r="H63" s="14" t="n">
-        <v>185.49</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="inlineStr">
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B64" s="9" t="inlineStr">
+      <c r="B76" s="12" t="inlineStr">
         <is>
           <t>DEC-20AL</t>
         </is>
       </c>
-      <c r="C64" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="inlineStr">
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
-      <c r="E64" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="10" t="n">
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G64" s="10" t="inlineStr"/>
-      <c r="H64" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="inlineStr">
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B65" s="12" t="inlineStr">
+      <c r="B77" s="9" t="inlineStr">
         <is>
           <t>DEC-20CU</t>
         </is>
       </c>
-      <c r="C65" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D65" s="12" t="inlineStr">
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
         <is>
           <t>DEC,#6 - #2/0 CU</t>
         </is>
       </c>
-      <c r="E65" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13" t="inlineStr"/>
-      <c r="H65" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="inlineStr">
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B66" s="9" t="inlineStr">
+      <c r="B78" s="12" t="inlineStr">
         <is>
           <t>DEG-10-PNA</t>
         </is>
       </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
         <is>
           <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
-      <c r="E66" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="10" t="inlineStr"/>
-      <c r="H66" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="12" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B67" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C67" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D67" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E67" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="13" t="inlineStr"/>
-      <c r="H67" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="9" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-N-GH</t>
-        </is>
-      </c>
-      <c r="C68" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
-        </is>
-      </c>
-      <c r="E68" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="10" t="inlineStr"/>
-      <c r="H68" s="11" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B69" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C69" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D69" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E69" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G69" s="13" t="inlineStr"/>
-      <c r="H69" s="14" t="n">
-        <v>155.4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G70" s="10" t="inlineStr"/>
-      <c r="H70" s="11" t="n">
-        <v>155.4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B71" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C71" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D71" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E71" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="inlineStr"/>
-      <c r="H71" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>SAA-SP-336</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" s="10" t="inlineStr"/>
-      <c r="H72" s="11" t="n">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="inlineStr">
-        <is>
-          <t>Point 27</t>
-        </is>
-      </c>
-      <c r="B73" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL</t>
-        </is>
-      </c>
-      <c r="C73" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
-        </is>
-      </c>
-      <c r="E73" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13" t="inlineStr"/>
-      <c r="H73" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H74" s="16" t="n">
-        <v>6588.169999999999</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (08/13/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C78" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D78" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E78" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F78" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G78" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H78" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2685,28 +2796,28 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>GYF-38-42W-I</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>GYF,3/8,42In Wire Mt,Insulator Adder</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
@@ -2715,32 +2826,32 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>162.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-16-96-D1</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,28 +2864,28 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC24-F</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
@@ -2783,66 +2894,66 @@
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F83" s="10" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>55.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-20-S-X</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2851,32 +2962,32 @@
         </is>
       </c>
       <c r="F84" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2885,32 +2996,32 @@
         </is>
       </c>
       <c r="F85" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -2919,32 +3030,32 @@
         </is>
       </c>
       <c r="F86" s="13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>165.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2953,32 +3064,32 @@
         </is>
       </c>
       <c r="F87" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>PLD-EYE-ARM</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>PLD, Eyebolt Deadend, Arm</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -2987,32 +3098,32 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,28 +3136,28 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3055,32 +3166,32 @@
         </is>
       </c>
       <c r="F90" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3089,32 +3200,32 @@
         </is>
       </c>
       <c r="F91" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>124.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>ARM-8SF-GN-TL</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tangent LD</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3123,1101 +3234,1101 @@
         </is>
       </c>
       <c r="F92" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>34.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="inlineStr">
+      <c r="A93" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H93" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (08/13/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B97" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C97" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D97" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E97" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G97" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H97" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-16-96-D1</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC24-F</t>
+        </is>
+      </c>
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-20-S-X</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>SVC-10-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG10</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
+        <is>
+          <t>SVD, Service Grip, 1/0</t>
+        </is>
+      </c>
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B113" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B93" s="9" t="inlineStr">
+      <c r="B115" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
         <is>
           <t>CND-S10</t>
         </is>
       </c>
-      <c r="C93" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D93" s="9" t="inlineStr">
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup 1/0</t>
         </is>
       </c>
-      <c r="E93" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="10" t="n">
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G93" s="10" t="inlineStr"/>
-      <c r="H93" s="11" t="n">
-        <v>12.34</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="12" t="inlineStr">
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B94" s="12" t="inlineStr">
+      <c r="B118" s="9" t="inlineStr">
         <is>
           <t>EQL-1-4-C-20-S-X</t>
         </is>
       </c>
-      <c r="C94" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D94" s="12" t="inlineStr">
+      <c r="C118" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D118" s="9" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
         </is>
       </c>
-      <c r="E94" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="13" t="n">
+      <c r="E118" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G94" s="13" t="inlineStr"/>
-      <c r="H94" s="14" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
+      <c r="G118" s="10" t="inlineStr"/>
+      <c r="H118" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B95" s="9" t="inlineStr">
+      <c r="B119" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C95" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="9" t="inlineStr">
+      <c r="C119" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E95" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="10" t="inlineStr"/>
-      <c r="H95" s="11" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="12" t="inlineStr">
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="13" t="inlineStr"/>
+      <c r="H119" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B96" s="12" t="inlineStr">
+      <c r="B120" s="9" t="inlineStr">
         <is>
           <t>SAA-SP-336</t>
         </is>
       </c>
-      <c r="C96" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="12" t="inlineStr">
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="inlineStr">
         <is>
           <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
-      <c r="E96" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="13" t="inlineStr"/>
-      <c r="H96" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="9" t="inlineStr">
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B97" s="9" t="inlineStr">
+      <c r="B121" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="inlineStr">
         <is>
           <t>SVD-SG10</t>
         </is>
       </c>
-      <c r="C97" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="9" t="inlineStr">
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
         <is>
           <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
-      <c r="E97" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="10" t="inlineStr"/>
-      <c r="H97" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12" t="inlineStr">
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B98" s="12" t="inlineStr">
+      <c r="B123" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C98" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="12" t="inlineStr">
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E98" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13" t="inlineStr"/>
-      <c r="H98" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="inlineStr">
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B99" s="9" t="inlineStr">
+      <c r="B124" s="9" t="inlineStr">
         <is>
           <t>XCO-15-100-7</t>
         </is>
       </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="inlineStr">
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
         <is>
           <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
-      <c r="E99" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="10" t="n">
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G99" s="10" t="inlineStr"/>
-      <c r="H99" s="11" t="n">
-        <v>53.04</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12" t="inlineStr">
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B100" s="12" t="inlineStr">
+      <c r="B125" s="12" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-DL</t>
         </is>
       </c>
-      <c r="C100" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D100" s="12" t="inlineStr">
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,DE Light</t>
         </is>
       </c>
-      <c r="E100" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="13" t="inlineStr"/>
-      <c r="H100" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="inlineStr">
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B101" s="9" t="inlineStr">
+      <c r="B126" s="9" t="inlineStr">
         <is>
           <t>CNC-SNB-2</t>
         </is>
       </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>20.29</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="12" t="inlineStr">
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B102" s="12" t="inlineStr">
+      <c r="B127" s="12" t="inlineStr">
         <is>
           <t>CNC-SNB-40</t>
         </is>
       </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
         <is>
           <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
         </is>
       </c>
-      <c r="E102" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="13" t="n">
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G102" s="13" t="inlineStr"/>
-      <c r="H102" s="14" t="n">
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C103" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D103" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E103" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" s="10" t="inlineStr"/>
-      <c r="H103" s="11" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B104" s="12" t="inlineStr">
-        <is>
-          <t>DEG-10-SPAJ</t>
-        </is>
-      </c>
-      <c r="C104" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D104" s="12" t="inlineStr">
-        <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
-        </is>
-      </c>
-      <c r="E104" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" s="13" t="inlineStr"/>
-      <c r="H104" s="14" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="inlineStr">
-        <is>
-          <t>DEG-2-SPA</t>
-        </is>
-      </c>
-      <c r="C105" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D105" s="9" t="inlineStr">
-        <is>
-          <t>DEG,#2,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E105" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="10" t="inlineStr"/>
-      <c r="H105" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B106" s="12" t="inlineStr">
-        <is>
-          <t>DEG-4-PNA</t>
-        </is>
-      </c>
-      <c r="C106" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
-        <is>
-          <t>DEG,#4,Primary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E106" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="13" t="inlineStr"/>
-      <c r="H106" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E107" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G107" s="10" t="inlineStr"/>
-      <c r="H107" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B108" s="12" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-K</t>
-        </is>
-      </c>
-      <c r="C108" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="12" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
-        </is>
-      </c>
-      <c r="E108" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="13" t="inlineStr"/>
-      <c r="H108" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C109" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E109" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G109" s="10" t="inlineStr"/>
-      <c r="H109" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B110" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C110" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D110" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E110" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" s="13" t="inlineStr"/>
-      <c r="H110" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C111" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D111" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E111" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="10" t="inlineStr"/>
-      <c r="H111" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B112" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C112" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D112" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E112" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="inlineStr"/>
-      <c r="H112" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="10" t="inlineStr"/>
-      <c r="H113" s="11" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B114" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8D-60S</t>
-        </is>
-      </c>
-      <c r="C114" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D114" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
-        </is>
-      </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" s="13" t="inlineStr"/>
-      <c r="H114" s="14" t="n">
-        <v>73.73</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="inlineStr">
-        <is>
-          <t>DEG-10-SPA</t>
-        </is>
-      </c>
-      <c r="C115" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D115" s="9" t="inlineStr">
-        <is>
-          <t>DEG,1/0,Slack Span Alum</t>
-        </is>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F115" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="10" t="inlineStr"/>
-      <c r="H115" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B116" s="12" t="inlineStr">
-        <is>
-          <t>DEG-4-PNA</t>
-        </is>
-      </c>
-      <c r="C116" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
-        <is>
-          <t>DEG,#4,Primary Neutral Al</t>
-        </is>
-      </c>
-      <c r="E116" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" s="13" t="inlineStr"/>
-      <c r="H116" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C117" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D117" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F117" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="10" t="inlineStr"/>
-      <c r="H117" s="11" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B118" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-N-GH</t>
-        </is>
-      </c>
-      <c r="C118" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D118" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
-        </is>
-      </c>
-      <c r="E118" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F118" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G118" s="13" t="inlineStr"/>
-      <c r="H118" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C119" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D119" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E119" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F119" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G119" s="10" t="inlineStr"/>
-      <c r="H119" s="11" t="n">
-        <v>186.48</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B120" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAA</t>
-        </is>
-      </c>
-      <c r="C120" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D120" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm,8in</t>
-        </is>
-      </c>
-      <c r="E120" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F120" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G120" s="13" t="inlineStr"/>
-      <c r="H120" s="14" t="n">
-        <v>186.48</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B121" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV</t>
-        </is>
-      </c>
-      <c r="C121" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D121" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E121" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F121" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" s="10" t="inlineStr"/>
-      <c r="H121" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="12" t="inlineStr">
-        <is>
-          <t>Point 26</t>
-        </is>
-      </c>
-      <c r="B122" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C122" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D122" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E122" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F122" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="13" t="inlineStr"/>
-      <c r="H122" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H123" s="16" t="n">
-        <v>8346.160000000002</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/14/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B127" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C127" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D127" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E127" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F127" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G127" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H127" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-16-96-D1</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
@@ -4227,7 +4338,7 @@
       </c>
       <c r="D128" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E128" s="9" t="inlineStr">
@@ -4236,32 +4347,32 @@
         </is>
       </c>
       <c r="F128" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" s="10" t="inlineStr"/>
       <c r="H128" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B129" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>DEG-10-SPAJ</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D129" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
         </is>
       </c>
       <c r="E129" s="12" t="inlineStr">
@@ -4270,32 +4381,32 @@
         </is>
       </c>
       <c r="F129" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G129" s="13" t="inlineStr"/>
       <c r="H129" s="14" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-N-GH</t>
+          <t>DEG-2-SPA</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D130" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,None,Guy Hook</t>
+          <t>DEG,#2,Slack Span Alum</t>
         </is>
       </c>
       <c r="E130" s="9" t="inlineStr">
@@ -4308,18 +4419,18 @@
       </c>
       <c r="G130" s="10" t="inlineStr"/>
       <c r="H130" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B131" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
@@ -4329,7 +4440,7 @@
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E131" s="12" t="inlineStr">
@@ -4342,18 +4453,18 @@
       </c>
       <c r="G131" s="13" t="inlineStr"/>
       <c r="H131" s="14" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
@@ -4363,7 +4474,7 @@
       </c>
       <c r="D132" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E132" s="9" t="inlineStr">
@@ -4372,22 +4483,22 @@
         </is>
       </c>
       <c r="F132" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G132" s="10" t="inlineStr"/>
       <c r="H132" s="11" t="n">
-        <v>114.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B133" s="12" t="inlineStr">
         <is>
-          <t>ARM-10SF-GN-DH</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
@@ -4397,31 +4508,31 @@
       </c>
       <c r="D133" s="12" t="inlineStr">
         <is>
-          <t>ARM,10ft Sgl.Fiberglass,Gain,DE Heavy</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E133" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F133" s="13" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G133" s="13" t="inlineStr"/>
       <c r="H133" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B134" s="9" t="inlineStr">
         <is>
-          <t>BKT-ARML-S</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C134" s="9" t="inlineStr">
@@ -4431,7 +4542,7 @@
       </c>
       <c r="D134" s="9" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Steel</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E134" s="9" t="inlineStr">
@@ -4444,18 +4555,18 @@
       </c>
       <c r="G134" s="10" t="inlineStr"/>
       <c r="H134" s="11" t="n">
-        <v>95.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B135" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-40</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -4465,7 +4576,7 @@
       </c>
       <c r="D135" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E135" s="12" t="inlineStr">
@@ -4474,22 +4585,22 @@
         </is>
       </c>
       <c r="F135" s="13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G135" s="13" t="inlineStr"/>
       <c r="H135" s="14" t="n">
-        <v>81.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B136" s="9" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C136" s="9" t="inlineStr">
@@ -4499,7 +4610,7 @@
       </c>
       <c r="D136" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E136" s="9" t="inlineStr">
@@ -4508,22 +4619,22 @@
         </is>
       </c>
       <c r="F136" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" s="10" t="inlineStr"/>
       <c r="H136" s="11" t="n">
-        <v>82.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B137" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
@@ -4533,7 +4644,7 @@
       </c>
       <c r="D137" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E137" s="12" t="inlineStr">
@@ -4542,22 +4653,22 @@
         </is>
       </c>
       <c r="F137" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G137" s="13" t="inlineStr"/>
       <c r="H137" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
@@ -4567,7 +4678,7 @@
       </c>
       <c r="D138" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E138" s="9" t="inlineStr">
@@ -4576,22 +4687,22 @@
         </is>
       </c>
       <c r="F138" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" s="10" t="inlineStr"/>
       <c r="H138" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B139" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SPAJ</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
@@ -4601,7 +4712,7 @@
       </c>
       <c r="D139" s="12" t="inlineStr">
         <is>
-          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E139" s="12" t="inlineStr">
@@ -4610,22 +4721,22 @@
         </is>
       </c>
       <c r="F139" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G139" s="13" t="inlineStr"/>
       <c r="H139" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
@@ -4635,7 +4746,7 @@
       </c>
       <c r="D140" s="9" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E140" s="9" t="inlineStr">
@@ -4648,18 +4759,18 @@
       </c>
       <c r="G140" s="10" t="inlineStr"/>
       <c r="H140" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B141" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
@@ -4669,7 +4780,7 @@
       </c>
       <c r="D141" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E141" s="12" t="inlineStr">
@@ -4678,22 +4789,22 @@
         </is>
       </c>
       <c r="F141" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" s="13" t="inlineStr"/>
       <c r="H141" s="14" t="n">
-        <v>158.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
@@ -4703,7 +4814,7 @@
       </c>
       <c r="D142" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E142" s="9" t="inlineStr">
@@ -4712,32 +4823,32 @@
         </is>
       </c>
       <c r="F142" s="10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G142" s="10" t="inlineStr"/>
       <c r="H142" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B143" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D143" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E143" s="12" t="inlineStr">
@@ -4750,28 +4861,28 @@
       </c>
       <c r="G143" s="13" t="inlineStr"/>
       <c r="H143" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B144" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>ARM-8D-60S</t>
         </is>
       </c>
       <c r="C144" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D144" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E144" s="9" t="inlineStr">
@@ -4780,32 +4891,32 @@
         </is>
       </c>
       <c r="F144" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="10" t="inlineStr"/>
       <c r="H144" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B145" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>DEG-10-SPA</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D145" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>DEG,1/0,Slack Span Alum</t>
         </is>
       </c>
       <c r="E145" s="12" t="inlineStr">
@@ -4818,28 +4929,28 @@
       </c>
       <c r="G145" s="13" t="inlineStr"/>
       <c r="H145" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B146" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C146" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D146" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E146" s="9" t="inlineStr">
@@ -4852,28 +4963,28 @@
       </c>
       <c r="G146" s="10" t="inlineStr"/>
       <c r="H146" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B147" s="12" t="inlineStr">
         <is>
-          <t>SLB-W-6-A-1-S</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D147" s="12" t="inlineStr">
         <is>
-          <t>SLB,Wood,6ft,Alum,1Pos,Street</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E147" s="12" t="inlineStr">
@@ -4886,28 +4997,28 @@
       </c>
       <c r="G147" s="13" t="inlineStr"/>
       <c r="H147" s="14" t="n">
-        <v>51.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B148" s="9" t="inlineStr">
         <is>
-          <t>SLT-LED-RW-T3-8L-SF</t>
+          <t>GYF-38-42W-I</t>
         </is>
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D148" s="9" t="inlineStr">
         <is>
-          <t>8500L LED, Type 3, Roadway</t>
+          <t>GYF,3/8,42In Wire Mt,Insulator Adder</t>
         </is>
       </c>
       <c r="E148" s="9" t="inlineStr">
@@ -4920,28 +5031,28 @@
       </c>
       <c r="G148" s="10" t="inlineStr"/>
       <c r="H148" s="11" t="n">
-        <v>76.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B149" s="12" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D149" s="12" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E149" s="12" t="inlineStr">
@@ -4950,22 +5061,22 @@
         </is>
       </c>
       <c r="F149" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G149" s="13" t="inlineStr"/>
       <c r="H149" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B150" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-8-84-D34</t>
+          <t>GYF-38-D-N-GH</t>
         </is>
       </c>
       <c r="C150" s="9" t="inlineStr">
@@ -4975,7 +5086,7 @@
       </c>
       <c r="D150" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
         </is>
       </c>
       <c r="E150" s="9" t="inlineStr">
@@ -4988,18 +5099,18 @@
       </c>
       <c r="G150" s="10" t="inlineStr"/>
       <c r="H150" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B151" s="12" t="inlineStr">
         <is>
-          <t>ARM-8D-60S</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
@@ -5009,31 +5120,31 @@
       </c>
       <c r="D151" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E151" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F151" s="13" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G151" s="13" t="inlineStr"/>
       <c r="H151" s="14" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B152" s="9" t="inlineStr">
         <is>
-          <t>BKT-ARML-S</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C152" s="9" t="inlineStr">
@@ -5043,7 +5154,7 @@
       </c>
       <c r="D152" s="9" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Steel</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E152" s="9" t="inlineStr">
@@ -5052,22 +5163,22 @@
         </is>
       </c>
       <c r="F152" s="10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G152" s="10" t="inlineStr"/>
       <c r="H152" s="11" t="n">
-        <v>104.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B153" s="12" t="inlineStr">
         <is>
-          <t>CND-S10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
@@ -5077,7 +5188,7 @@
       </c>
       <c r="D153" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup 1/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E153" s="12" t="inlineStr">
@@ -5086,22 +5197,22 @@
         </is>
       </c>
       <c r="F153" s="13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G153" s="13" t="inlineStr"/>
       <c r="H153" s="14" t="n">
-        <v>18.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B154" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SPA</t>
+          <t>PIN-XAA</t>
         </is>
       </c>
       <c r="C154" s="9" t="inlineStr">
@@ -5111,7 +5222,7 @@
       </c>
       <c r="D154" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Slack Span Alum</t>
+          <t>Pin,Crossarm,8in</t>
         </is>
       </c>
       <c r="E154" s="9" t="inlineStr">
@@ -5120,22 +5231,22 @@
         </is>
       </c>
       <c r="F154" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G154" s="10" t="inlineStr"/>
       <c r="H154" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B155" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-DP</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -5145,7 +5256,7 @@
       </c>
       <c r="D155" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,DuPlex</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E155" s="12" t="inlineStr">
@@ -5158,18 +5269,18 @@
       </c>
       <c r="G155" s="13" t="inlineStr"/>
       <c r="H155" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B156" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C156" s="9" t="inlineStr">
@@ -5179,7 +5290,7 @@
       </c>
       <c r="D156" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E156" s="9" t="inlineStr">
@@ -5188,22 +5299,22 @@
         </is>
       </c>
       <c r="F156" s="10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G156" s="10" t="inlineStr"/>
       <c r="H156" s="11" t="n">
-        <v>186.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B157" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAA</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
@@ -5213,7 +5324,7 @@
       </c>
       <c r="D157" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm,8in</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E157" s="12" t="inlineStr">
@@ -5222,22 +5333,22 @@
         </is>
       </c>
       <c r="F157" s="13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G157" s="13" t="inlineStr"/>
       <c r="H157" s="14" t="n">
-        <v>186.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 26</t>
         </is>
       </c>
       <c r="B158" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C158" s="9" t="inlineStr">
@@ -5247,7 +5358,7 @@
       </c>
       <c r="D158" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E158" s="9" t="inlineStr">
@@ -5256,145 +5367,2849 @@
         </is>
       </c>
       <c r="F158" s="10" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G158" s="10" t="inlineStr"/>
       <c r="H158" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="12" t="inlineStr">
+      <c r="A159" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H159" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/14/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B163" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C163" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D163" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E163" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G163" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H163" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-16-96-D1</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="10" t="inlineStr"/>
+      <c r="H164" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B159" s="12" t="inlineStr">
+      <c r="B165" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C165" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D165" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E165" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="13" t="inlineStr"/>
+      <c r="H165" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B166" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-N-GH</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D166" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,None,Guy Hook</t>
+        </is>
+      </c>
+      <c r="E166" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="10" t="inlineStr"/>
+      <c r="H166" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B167" s="12" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C167" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E167" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="13" t="inlineStr"/>
+      <c r="H167" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B168" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D168" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G168" s="10" t="inlineStr"/>
+      <c r="H168" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B169" s="12" t="inlineStr">
+        <is>
+          <t>ARM-10SF-GN-DH</t>
+        </is>
+      </c>
+      <c r="C169" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D169" s="12" t="inlineStr">
+        <is>
+          <t>ARM,10ft Sgl.Fiberglass,Gain,DE Heavy</t>
+        </is>
+      </c>
+      <c r="E169" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="13" t="inlineStr"/>
+      <c r="H169" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B170" s="9" t="inlineStr">
+        <is>
+          <t>BKT-ARML-S</t>
+        </is>
+      </c>
+      <c r="C170" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D170" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Crossarm inLin,Steel</t>
+        </is>
+      </c>
+      <c r="E170" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G170" s="10" t="inlineStr"/>
+      <c r="H170" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B171" s="12" t="inlineStr">
+        <is>
+          <t>CNC-SNB-40</t>
+        </is>
+      </c>
+      <c r="C171" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D171" s="12" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#1/0-#4/0</t>
+        </is>
+      </c>
+      <c r="E171" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G171" s="13" t="inlineStr"/>
+      <c r="H171" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B172" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C172" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D172" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E172" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" s="10" t="inlineStr"/>
+      <c r="H172" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B173" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C173" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D173" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E173" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F173" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G173" s="13" t="inlineStr"/>
+      <c r="H173" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B174" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL</t>
+        </is>
+      </c>
+      <c r="C174" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D174" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+        </is>
+      </c>
+      <c r="E174" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G174" s="10" t="inlineStr"/>
+      <c r="H174" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B175" s="12" t="inlineStr">
+        <is>
+          <t>DEG-10-SPA</t>
+        </is>
+      </c>
+      <c r="C175" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D175" s="12" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E175" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" s="13" t="inlineStr"/>
+      <c r="H175" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B176" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SPAJ</t>
+        </is>
+      </c>
+      <c r="C176" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D176" s="9" t="inlineStr">
+        <is>
+          <t>DEG, 1/0,Slack Span Alum for J-Neck Ins</t>
+        </is>
+      </c>
+      <c r="E176" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G176" s="10" t="inlineStr"/>
+      <c r="H176" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B177" s="12" t="inlineStr">
+        <is>
+          <t>DEG-4-DP</t>
+        </is>
+      </c>
+      <c r="C177" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D177" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#4,DuPlex</t>
+        </is>
+      </c>
+      <c r="E177" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="13" t="inlineStr"/>
+      <c r="H177" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B178" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C178" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D178" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G178" s="10" t="inlineStr"/>
+      <c r="H178" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B179" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C179" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D179" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E179" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="13" t="inlineStr"/>
+      <c r="H179" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B180" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D180" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E180" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G180" s="10" t="inlineStr"/>
+      <c r="H180" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B181" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C181" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D181" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E181" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F181" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G181" s="13" t="inlineStr"/>
+      <c r="H181" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B182" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C182" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G182" s="10" t="inlineStr"/>
+      <c r="H182" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B183" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C183" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D183" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E183" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G183" s="13" t="inlineStr"/>
+      <c r="H183" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B184" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C184" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D184" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="10" t="inlineStr"/>
+      <c r="H184" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B185" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C185" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D185" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E185" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" s="13" t="inlineStr"/>
+      <c r="H185" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B186" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C186" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G186" s="10" t="inlineStr"/>
+      <c r="H186" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B187" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM</t>
+        </is>
+      </c>
+      <c r="C187" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D187" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm</t>
+        </is>
+      </c>
+      <c r="E187" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F187" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G187" s="13" t="inlineStr"/>
+      <c r="H187" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B188" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C188" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D188" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E188" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F188" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="10" t="inlineStr"/>
+      <c r="H188" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B189" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C189" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D189" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E189" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F189" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" s="13" t="inlineStr"/>
+      <c r="H189" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B190" s="9" t="inlineStr">
         <is>
           <t>SLB-W-6-A-1-S</t>
         </is>
       </c>
-      <c r="C159" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D159" s="12" t="inlineStr">
+      <c r="C190" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D190" s="9" t="inlineStr">
         <is>
           <t>SLB,Wood,6ft,Alum,1Pos,Street</t>
         </is>
       </c>
-      <c r="E159" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="13" t="inlineStr"/>
-      <c r="H159" s="14" t="n">
-        <v>37.03</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="9" t="inlineStr">
+      <c r="E190" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F190" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" s="10" t="inlineStr"/>
+      <c r="H190" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B191" s="12" t="inlineStr">
+        <is>
+          <t>SLT-LED-RW-T3-8L-SF</t>
+        </is>
+      </c>
+      <c r="C191" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D191" s="12" t="inlineStr">
+        <is>
+          <t>8500L LED, Type 3, Roadway</t>
+        </is>
+      </c>
+      <c r="E191" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F191" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="13" t="inlineStr"/>
+      <c r="H191" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B192" s="9" t="inlineStr">
+        <is>
+          <t>SWI-15-CO1-100-H</t>
+        </is>
+      </c>
+      <c r="C192" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D192" s="9" t="inlineStr">
+        <is>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+        </is>
+      </c>
+      <c r="E192" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F192" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G192" s="10" t="inlineStr"/>
+      <c r="H192" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B193" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C193" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D193" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E193" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F193" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G193" s="13" t="inlineStr"/>
+      <c r="H193" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B160" s="9" t="inlineStr">
+      <c r="B194" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-8-84-D34</t>
+        </is>
+      </c>
+      <c r="C194" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D194" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,8in,84in,Db Eye 3/4in</t>
+        </is>
+      </c>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F194" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="10" t="inlineStr"/>
+      <c r="H194" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B195" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8D-60S</t>
+        </is>
+      </c>
+      <c r="C195" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D195" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E195" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F195" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" s="13" t="inlineStr"/>
+      <c r="H195" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B196" s="9" t="inlineStr">
+        <is>
+          <t>ARM-BR-60S</t>
+        </is>
+      </c>
+      <c r="C196" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D196" s="9" t="inlineStr">
+        <is>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F196" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" s="10" t="inlineStr"/>
+      <c r="H196" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B197" s="12" t="inlineStr">
+        <is>
+          <t>BKT-ARML-S</t>
+        </is>
+      </c>
+      <c r="C197" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D197" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Crossarm inLin,Steel</t>
+        </is>
+      </c>
+      <c r="E197" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F197" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G197" s="13" t="inlineStr"/>
+      <c r="H197" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B198" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C198" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D198" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F198" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G198" s="10" t="inlineStr"/>
+      <c r="H198" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B199" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C199" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D199" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E199" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F199" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G199" s="13" t="inlineStr"/>
+      <c r="H199" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B200" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SPA</t>
+        </is>
+      </c>
+      <c r="C200" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D200" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Slack Span Alum</t>
+        </is>
+      </c>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F200" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="10" t="inlineStr"/>
+      <c r="H200" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B201" s="12" t="inlineStr">
+        <is>
+          <t>DEG-4-DP</t>
+        </is>
+      </c>
+      <c r="C201" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D201" s="12" t="inlineStr">
+        <is>
+          <t>DEG,#4,DuPlex</t>
+        </is>
+      </c>
+      <c r="E201" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F201" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" s="13" t="inlineStr"/>
+      <c r="H201" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B202" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C202" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D202" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E202" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F202" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" s="10" t="inlineStr"/>
+      <c r="H202" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B203" s="12" t="inlineStr">
+        <is>
+          <t>GND-LG-SL</t>
+        </is>
+      </c>
+      <c r="C203" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D203" s="12" t="inlineStr">
+        <is>
+          <t>GND,Lug,St Lt</t>
+        </is>
+      </c>
+      <c r="E203" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F203" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="13" t="inlineStr"/>
+      <c r="H203" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B204" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C204" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D204" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E204" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F204" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" s="10" t="inlineStr"/>
+      <c r="H204" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B205" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C205" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D205" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E205" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F205" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G205" s="13" t="inlineStr"/>
+      <c r="H205" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B206" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C206" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D206" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E206" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F206" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G206" s="10" t="inlineStr"/>
+      <c r="H206" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B207" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C207" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D207" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E207" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F207" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G207" s="13" t="inlineStr"/>
+      <c r="H207" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B208" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAA</t>
+        </is>
+      </c>
+      <c r="C208" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D208" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm,8in</t>
+        </is>
+      </c>
+      <c r="E208" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F208" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G208" s="10" t="inlineStr"/>
+      <c r="H208" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B209" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C209" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D209" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E209" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F209" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="13" t="inlineStr"/>
+      <c r="H209" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B210" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM</t>
+        </is>
+      </c>
+      <c r="C210" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D210" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm</t>
+        </is>
+      </c>
+      <c r="E210" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F210" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G210" s="10" t="inlineStr"/>
+      <c r="H210" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B211" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C211" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D211" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E211" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F211" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" s="13" t="inlineStr"/>
+      <c r="H211" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B212" s="9" t="inlineStr">
+        <is>
+          <t>SLB-W-6-A-1-S</t>
+        </is>
+      </c>
+      <c r="C212" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D212" s="9" t="inlineStr">
+        <is>
+          <t>SLB,Wood,6ft,Alum,1Pos,Street</t>
+        </is>
+      </c>
+      <c r="E212" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F212" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" s="10" t="inlineStr"/>
+      <c r="H212" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B213" s="12" t="inlineStr">
         <is>
           <t>SLT-150-SR</t>
         </is>
       </c>
-      <c r="C160" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="9" t="inlineStr">
+      <c r="C213" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D213" s="12" t="inlineStr">
         <is>
           <t>150W 120V Sodium Roadway Refractor</t>
         </is>
       </c>
-      <c r="E160" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="10" t="inlineStr"/>
-      <c r="H160" s="11" t="n">
-        <v>54.35</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="12" t="inlineStr">
+      <c r="E213" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F213" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" s="13" t="inlineStr"/>
+      <c r="H213" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B161" s="12" t="inlineStr">
+      <c r="B214" s="9" t="inlineStr">
         <is>
           <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
-      <c r="C161" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D161" s="12" t="inlineStr">
+      <c r="C214" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D214" s="9" t="inlineStr">
         <is>
           <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
-      <c r="E161" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="13" t="n">
+      <c r="E214" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F214" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G161" s="13" t="inlineStr"/>
-      <c r="H161" s="14" t="n">
-        <v>79.56</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="15" t="inlineStr">
+      <c r="G214" s="10" t="inlineStr"/>
+      <c r="H214" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B215" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C215" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D215" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E215" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F215" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G215" s="13" t="inlineStr"/>
+      <c r="H215" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H162" s="16" t="n">
-        <v>6927.6</v>
+      <c r="H216" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (08/17/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B220" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C220" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D220" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E220" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F220" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G220" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H220" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B221" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C221" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D221" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E221" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F221" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" s="10" t="inlineStr"/>
+      <c r="H221" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B222" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C222" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D222" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E222" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F222" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="G222" s="13" t="inlineStr"/>
+      <c r="H222" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B223" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DSC-16-96-D1</t>
+        </is>
+      </c>
+      <c r="C223" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D223" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E223" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F223" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" s="10" t="inlineStr"/>
+      <c r="H223" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B224" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC24-F</t>
+        </is>
+      </c>
+      <c r="C224" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D224" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 24in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E224" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F224" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" s="13" t="inlineStr"/>
+      <c r="H224" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B225" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C225" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D225" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E225" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F225" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" s="10" t="inlineStr"/>
+      <c r="H225" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B226" s="12" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C226" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D226" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E226" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F226" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" s="13" t="inlineStr"/>
+      <c r="H226" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B227" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-20-S-X</t>
+        </is>
+      </c>
+      <c r="C227" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D227" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E227" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F227" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" s="10" t="inlineStr"/>
+      <c r="H227" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B228" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C228" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D228" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E228" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F228" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" s="13" t="inlineStr"/>
+      <c r="H228" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B229" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C229" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D229" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E229" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F229" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G229" s="10" t="inlineStr"/>
+      <c r="H229" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B230" s="12" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C230" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D230" s="12" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E230" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F230" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G230" s="13" t="inlineStr"/>
+      <c r="H230" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B231" s="9" t="inlineStr">
+        <is>
+          <t>SVC-10-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C231" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D231" s="9" t="inlineStr">
+        <is>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
+        </is>
+      </c>
+      <c r="E231" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F231" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" s="10" t="inlineStr"/>
+      <c r="H231" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B232" s="12" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C232" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D232" s="12" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E232" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F232" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G232" s="13" t="inlineStr"/>
+      <c r="H232" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B233" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C233" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D233" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E233" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F233" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G233" s="10" t="inlineStr"/>
+      <c r="H233" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B234" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG10</t>
+        </is>
+      </c>
+      <c r="C234" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D234" s="12" t="inlineStr">
+        <is>
+          <t>SVD, Service Grip, 1/0</t>
+        </is>
+      </c>
+      <c r="E234" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F234" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" s="13" t="inlineStr"/>
+      <c r="H234" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B235" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C235" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D235" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E235" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F235" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G235" s="10" t="inlineStr"/>
+      <c r="H235" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B236" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C236" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D236" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E236" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F236" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" s="13" t="inlineStr"/>
+      <c r="H236" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B237" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C237" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D237" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E237" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F237" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" s="10" t="inlineStr"/>
+      <c r="H237" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B238" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC10</t>
+        </is>
+      </c>
+      <c r="C238" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D238" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line Clamp 1/0</t>
+        </is>
+      </c>
+      <c r="E238" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F238" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" s="13" t="inlineStr"/>
+      <c r="H238" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B239" s="9" t="inlineStr">
+        <is>
+          <t>CND-S10</t>
+        </is>
+      </c>
+      <c r="C239" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D239" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup 1/0</t>
+        </is>
+      </c>
+      <c r="E239" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F239" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" s="10" t="inlineStr"/>
+      <c r="H239" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B240" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-20-S-X</t>
+        </is>
+      </c>
+      <c r="C240" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D240" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,2/0,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E240" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F240" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" s="13" t="inlineStr"/>
+      <c r="H240" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B241" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C241" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D241" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E241" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F241" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" s="10" t="inlineStr"/>
+      <c r="H241" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B242" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C242" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D242" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E242" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F242" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" s="13" t="inlineStr"/>
+      <c r="H242" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B243" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C243" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D243" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E243" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F243" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G243" s="10" t="inlineStr"/>
+      <c r="H243" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B244" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG10</t>
+        </is>
+      </c>
+      <c r="C244" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D244" s="12" t="inlineStr">
+        <is>
+          <t>SVD, Service Grip, 1/0</t>
+        </is>
+      </c>
+      <c r="E244" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F244" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" s="13" t="inlineStr"/>
+      <c r="H244" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="9" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B245" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C245" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D245" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E245" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F245" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G245" s="10" t="inlineStr"/>
+      <c r="H245" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="12" t="inlineStr">
+        <is>
+          <t>Point 30</t>
+        </is>
+      </c>
+      <c r="B246" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C246" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D246" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E246" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F246" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" s="13" t="inlineStr"/>
+      <c r="H246" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B247" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C247" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D247" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E247" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F247" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" s="10" t="inlineStr"/>
+      <c r="H247" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H248" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A123:G123"/>
+  <mergeCells count="20">
+    <mergeCell ref="A159:G159"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D2:I4"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A162:H162"/>
+    <mergeCell ref="A216:G216"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A162:G162"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A44:H44"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A219:H219"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A46:G46"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A248:G248"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
